--- a/音檔/切割音檔/clean_data/語音辨識判定(SHIH).xlsx
+++ b/音檔/切割音檔/clean_data/語音辨識判定(SHIH).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tku365-my.sharepoint.com/personal/410410103_o365_tku_edu_tw/Documents/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tku365-my.sharepoint.com/personal/410410103_o365_tku_edu_tw/Documents/桌面/Japanese-Speech-Assessment/音檔/切割音檔/clean_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{F6982DE5-F8EF-419D-95AD-8FE25255D6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97443CA2-CD8D-4FE5-8AA7-4BBC250C5B1F}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{F6982DE5-F8EF-419D-95AD-8FE25255D6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8822979-99B6-400E-AA94-85D099FE4F5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,9 +214,16 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF212121"/>
-      <name val="Courier New"/>
+      <name val="Microsoft JhengHei"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -257,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +283,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -291,6 +301,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,19 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="17.25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>25</v>
@@ -635,7 +649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -705,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,8 +753,10 @@
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -774,8 +790,9 @@
       <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -801,8 +818,9 @@
       <c r="K6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -835,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="17.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -869,8 +887,11 @@
       <c r="K8" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -905,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="17.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -939,9 +960,8 @@
       <c r="K10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" ht="17.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -976,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="17.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="17.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="17.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="17.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="K16" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="17.25" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="17.25" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="17.25" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1291,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="17.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="17.25" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="17.25" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="17.25" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
